--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna1-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna1-Epha2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>18.57067033333334</v>
+        <v>31.824752</v>
       </c>
       <c r="H2">
-        <v>55.712011</v>
+        <v>95.47425600000001</v>
       </c>
       <c r="I2">
-        <v>0.834164862818447</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="J2">
-        <v>0.8341648628184472</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.004147</v>
+        <v>15.50220733333333</v>
       </c>
       <c r="N2">
-        <v>30.012441</v>
+        <v>46.506622</v>
       </c>
       <c r="O2">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="P2">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="Q2">
-        <v>185.7837159032057</v>
+        <v>493.3539038359147</v>
       </c>
       <c r="R2">
-        <v>1672.053443128851</v>
+        <v>4440.185134523233</v>
       </c>
       <c r="S2">
-        <v>0.4135299797200605</v>
+        <v>0.5316723828547616</v>
       </c>
       <c r="T2">
-        <v>0.4135299797200606</v>
+        <v>0.5316723828547616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>18.57067033333334</v>
+        <v>31.824752</v>
       </c>
       <c r="H3">
-        <v>55.712011</v>
+        <v>95.47425600000001</v>
       </c>
       <c r="I3">
-        <v>0.834164862818447</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="J3">
-        <v>0.8341648628184472</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.413406</v>
       </c>
       <c r="O3">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="P3">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="Q3">
-        <v>21.12974584660734</v>
+        <v>36.21026647510401</v>
       </c>
       <c r="R3">
-        <v>190.167712619466</v>
+        <v>325.892398275936</v>
       </c>
       <c r="S3">
-        <v>0.04703201962000801</v>
+        <v>0.03902269448145988</v>
       </c>
       <c r="T3">
-        <v>0.04703201962000802</v>
+        <v>0.03902269448145988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>18.57067033333334</v>
+        <v>31.824752</v>
       </c>
       <c r="H4">
-        <v>55.712011</v>
+        <v>95.47425600000001</v>
       </c>
       <c r="I4">
-        <v>0.834164862818447</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="J4">
-        <v>0.8341648628184472</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.482224</v>
+        <v>8.848210666666667</v>
       </c>
       <c r="N4">
-        <v>25.446672</v>
+        <v>26.544632</v>
       </c>
       <c r="O4">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="P4">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="Q4">
-        <v>157.520585597488</v>
+        <v>281.5921101104213</v>
       </c>
       <c r="R4">
-        <v>1417.685270377392</v>
+        <v>2534.328990993792</v>
       </c>
       <c r="S4">
-        <v>0.3506199897603474</v>
+        <v>0.3034631874024898</v>
       </c>
       <c r="T4">
-        <v>0.3506199897603475</v>
+        <v>0.3034631874024898</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>18.57067033333334</v>
+        <v>31.824752</v>
       </c>
       <c r="H5">
-        <v>55.712011</v>
+        <v>95.47425600000001</v>
       </c>
       <c r="I5">
-        <v>0.834164862818447</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="J5">
-        <v>0.8341648628184472</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5560033333333334</v>
+        <v>0.371739</v>
       </c>
       <c r="N5">
-        <v>1.66801</v>
+        <v>1.115217</v>
       </c>
       <c r="O5">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575842</v>
       </c>
       <c r="P5">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575841</v>
       </c>
       <c r="Q5">
-        <v>10.32535460756778</v>
+        <v>11.830501483728</v>
       </c>
       <c r="R5">
-        <v>92.92819146811001</v>
+        <v>106.474513353552</v>
       </c>
       <c r="S5">
-        <v>0.02298287371803107</v>
+        <v>0.0127493688918137</v>
       </c>
       <c r="T5">
-        <v>0.02298287371803108</v>
+        <v>0.0127493688918137</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.999351000000001</v>
       </c>
       <c r="I6">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="J6">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.004147</v>
+        <v>15.50220733333333</v>
       </c>
       <c r="N6">
-        <v>30.012441</v>
+        <v>46.506622</v>
       </c>
       <c r="O6">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="P6">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="Q6">
-        <v>23.340845436199</v>
+        <v>36.16846346692467</v>
       </c>
       <c r="R6">
-        <v>210.067608925791</v>
+        <v>325.516171202322</v>
       </c>
       <c r="S6">
-        <v>0.05195363486490525</v>
+        <v>0.03897764466063876</v>
       </c>
       <c r="T6">
-        <v>0.05195363486490526</v>
+        <v>0.03897764466063876</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.999351000000001</v>
       </c>
       <c r="I7">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="J7">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.413406</v>
       </c>
       <c r="O7">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="P7">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="Q7">
         <v>2.654625188834</v>
@@ -883,10 +883,10 @@
         <v>23.891626699506</v>
       </c>
       <c r="S7">
-        <v>0.00590884456781362</v>
+        <v>0.002860808212441065</v>
       </c>
       <c r="T7">
-        <v>0.005908844567813621</v>
+        <v>0.002860808212441065</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.999351000000001</v>
       </c>
       <c r="I8">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="J8">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.482224</v>
+        <v>8.848210666666667</v>
       </c>
       <c r="N8">
-        <v>25.446672</v>
+        <v>26.544632</v>
       </c>
       <c r="O8">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="P8">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="Q8">
-        <v>19.790021012208</v>
+        <v>20.64391072598134</v>
       </c>
       <c r="R8">
-        <v>178.110189109872</v>
+        <v>185.795196533832</v>
       </c>
       <c r="S8">
-        <v>0.04404996933155181</v>
+        <v>0.02224730993671011</v>
       </c>
       <c r="T8">
-        <v>0.04404996933155182</v>
+        <v>0.02224730993671011</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.999351000000001</v>
       </c>
       <c r="I9">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="J9">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5560033333333334</v>
+        <v>0.371739</v>
       </c>
       <c r="N9">
-        <v>1.66801</v>
+        <v>1.115217</v>
       </c>
       <c r="O9">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575842</v>
       </c>
       <c r="P9">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575841</v>
       </c>
       <c r="Q9">
-        <v>1.297220829056667</v>
+        <v>0.867310580463</v>
       </c>
       <c r="R9">
-        <v>11.67498746151</v>
+        <v>7.805795224167</v>
       </c>
       <c r="S9">
-        <v>0.002887441994172037</v>
+        <v>0.0009346740329904757</v>
       </c>
       <c r="T9">
-        <v>0.002887441994172038</v>
+        <v>0.0009346740329904755</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.240364666666667</v>
+        <v>1.696588</v>
       </c>
       <c r="H10">
-        <v>3.721094</v>
+        <v>5.089764000000001</v>
       </c>
       <c r="I10">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="J10">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.004147</v>
+        <v>15.50220733333333</v>
       </c>
       <c r="N10">
-        <v>30.012441</v>
+        <v>46.506622</v>
       </c>
       <c r="O10">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="P10">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="Q10">
-        <v>12.40879045893933</v>
+        <v>26.30085893524534</v>
       </c>
       <c r="R10">
-        <v>111.679114130454</v>
+        <v>236.707730417208</v>
       </c>
       <c r="S10">
-        <v>0.02762032636654309</v>
+        <v>0.02834362965916574</v>
       </c>
       <c r="T10">
-        <v>0.0276203263665431</v>
+        <v>0.02834362965916574</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.240364666666667</v>
+        <v>1.696588</v>
       </c>
       <c r="H11">
-        <v>3.721094</v>
+        <v>5.089764000000001</v>
       </c>
       <c r="I11">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="J11">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.413406</v>
       </c>
       <c r="O11">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="P11">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="Q11">
-        <v>1.411289398462666</v>
+        <v>1.930381219576</v>
       </c>
       <c r="R11">
-        <v>12.701604586164</v>
+        <v>17.373430976184</v>
       </c>
       <c r="S11">
-        <v>0.003141343542883312</v>
+        <v>0.002080312681931066</v>
       </c>
       <c r="T11">
-        <v>0.003141343542883313</v>
+        <v>0.002080312681931066</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.240364666666667</v>
+        <v>1.696588</v>
       </c>
       <c r="H12">
-        <v>3.721094</v>
+        <v>5.089764000000001</v>
       </c>
       <c r="I12">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="J12">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.482224</v>
+        <v>8.848210666666667</v>
       </c>
       <c r="N12">
-        <v>25.446672</v>
+        <v>26.544632</v>
       </c>
       <c r="O12">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="P12">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="Q12">
-        <v>10.521050944352</v>
+        <v>15.01176803853867</v>
       </c>
       <c r="R12">
-        <v>94.689458499168</v>
+        <v>135.105912346848</v>
       </c>
       <c r="S12">
-        <v>0.02341846788078229</v>
+        <v>0.01617772236493203</v>
       </c>
       <c r="T12">
-        <v>0.0234184678807823</v>
+        <v>0.01617772236493203</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.240364666666667</v>
+        <v>1.696588</v>
       </c>
       <c r="H13">
-        <v>3.721094</v>
+        <v>5.089764000000001</v>
       </c>
       <c r="I13">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="J13">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5560033333333334</v>
+        <v>0.371739</v>
       </c>
       <c r="N13">
-        <v>1.66801</v>
+        <v>1.115217</v>
       </c>
       <c r="O13">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575842</v>
       </c>
       <c r="P13">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575841</v>
       </c>
       <c r="Q13">
-        <v>0.6896468892155556</v>
+        <v>0.630687926532</v>
       </c>
       <c r="R13">
-        <v>6.206822002940001</v>
+        <v>5.676191338788001</v>
       </c>
       <c r="S13">
-        <v>0.001535062762227755</v>
+        <v>0.0006796730503799189</v>
       </c>
       <c r="T13">
-        <v>0.001535062762227756</v>
+        <v>0.0006796730503799188</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.118438</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H14">
-        <v>0.355314</v>
+        <v>0.085106</v>
       </c>
       <c r="I14">
-        <v>0.005320045870673626</v>
+        <v>0.0007905917702857979</v>
       </c>
       <c r="J14">
-        <v>0.005320045870673627</v>
+        <v>0.0007905917702857978</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.004147</v>
+        <v>15.50220733333333</v>
       </c>
       <c r="N14">
-        <v>30.012441</v>
+        <v>46.506622</v>
       </c>
       <c r="O14">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="P14">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="Q14">
-        <v>1.184871162386</v>
+        <v>0.4397769524368889</v>
       </c>
       <c r="R14">
-        <v>10.663840461474</v>
+        <v>3.957992571932</v>
       </c>
       <c r="S14">
-        <v>0.00263736649560637</v>
+        <v>0.0004739341442497058</v>
       </c>
       <c r="T14">
-        <v>0.002637366495606371</v>
+        <v>0.0004739341442497057</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.118438</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H15">
-        <v>0.355314</v>
+        <v>0.085106</v>
       </c>
       <c r="I15">
-        <v>0.005320045870673626</v>
+        <v>0.0007905917702857979</v>
       </c>
       <c r="J15">
-        <v>0.005320045870673627</v>
+        <v>0.0007905917702857978</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.413406</v>
       </c>
       <c r="O15">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="P15">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="Q15">
-        <v>0.134758993276</v>
+        <v>0.03227792567066667</v>
       </c>
       <c r="R15">
-        <v>1.212830939484</v>
+        <v>0.290501331036</v>
       </c>
       <c r="S15">
-        <v>0.0002999556957163783</v>
+        <v>3.478493130691821E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002999556957163784</v>
+        <v>3.478493130691821E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.118438</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H16">
-        <v>0.355314</v>
+        <v>0.085106</v>
       </c>
       <c r="I16">
-        <v>0.005320045870673626</v>
+        <v>0.0007905917702857979</v>
       </c>
       <c r="J16">
-        <v>0.005320045870673627</v>
+        <v>0.0007905917702857978</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.482224</v>
+        <v>8.848210666666667</v>
       </c>
       <c r="N16">
-        <v>25.446672</v>
+        <v>26.544632</v>
       </c>
       <c r="O16">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="P16">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="Q16">
-        <v>1.004617646112</v>
+        <v>0.2510119389991111</v>
       </c>
       <c r="R16">
-        <v>9.041558815007999</v>
+        <v>2.259107450992</v>
       </c>
       <c r="S16">
-        <v>0.002236146008832962</v>
+        <v>0.0002705078741548538</v>
       </c>
       <c r="T16">
-        <v>0.002236146008832962</v>
+        <v>0.0002705078741548538</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.118438</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H17">
-        <v>0.355314</v>
+        <v>0.085106</v>
       </c>
       <c r="I17">
-        <v>0.005320045870673626</v>
+        <v>0.0007905917702857979</v>
       </c>
       <c r="J17">
-        <v>0.005320045870673627</v>
+        <v>0.0007905917702857978</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5560033333333334</v>
+        <v>0.371739</v>
       </c>
       <c r="N17">
-        <v>1.66801</v>
+        <v>1.115217</v>
       </c>
       <c r="O17">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575842</v>
       </c>
       <c r="P17">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575841</v>
       </c>
       <c r="Q17">
-        <v>0.06585192279333334</v>
+        <v>0.010545739778</v>
       </c>
       <c r="R17">
-        <v>0.59266730514</v>
+        <v>0.09491165800199999</v>
       </c>
       <c r="S17">
-        <v>0.0001465776705179156</v>
+        <v>1.136482057432002E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001465776705179156</v>
+        <v>1.136482057432002E-05</v>
       </c>
     </row>
   </sheetData>
